--- a/documents/CalculationOfFlat/monthly service charge-feb2016.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge-feb2016.xlsx
@@ -679,7 +679,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,13 +1184,13 @@
         <v>74</v>
       </c>
       <c r="D35" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
         <f>SUM(D28:D35)</f>
-        <v>17800</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I38" s="12">
         <f>D36</f>
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="J38" s="12">
         <f>D64</f>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="K38" s="12">
         <f>I38-J38+M38</f>
-        <v>12452</v>
+        <v>11952</v>
       </c>
       <c r="M38">
         <v>25152</v>

--- a/documents/CalculationOfFlat/monthly service charge-feb2016.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge-feb2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>#Sl</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">dec,15 jan-16 + new line </t>
+  </si>
+  <si>
+    <t>3A-flat pending charge(Jan, Feb) + Ground floor flat 5 month(Oct-15-Feb-16) charge at 600</t>
   </si>
 </sst>
 </file>
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,6 +1178,12 @@
       <c r="B34" t="s">
         <v>59</v>
       </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="5">
+        <v>7000</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1190,7 +1199,7 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
         <f>SUM(D28:D35)</f>
-        <v>17300</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1210,15 +1219,15 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I38" s="12">
         <f>D36</f>
-        <v>17300</v>
+        <v>24300</v>
       </c>
       <c r="J38" s="12">
         <f>D64</f>
-        <v>30500</v>
+        <v>45496</v>
       </c>
       <c r="K38" s="12">
         <f>I38-J38+M38</f>
-        <v>11952</v>
+        <v>3956</v>
       </c>
       <c r="M38">
         <v>25152</v>
@@ -1291,7 +1300,9 @@
       <c r="B45" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7">
+        <v>8279</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -1300,7 +1311,9 @@
       <c r="B46" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7">
+        <v>6717</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -1400,7 +1413,7 @@
       </c>
       <c r="D64" s="6">
         <f>SUM(D42:D63)</f>
-        <v>30500</v>
+        <v>45496</v>
       </c>
     </row>
   </sheetData>

--- a/documents/CalculationOfFlat/monthly service charge-feb2016.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge-feb2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>#Sl</t>
   </si>
@@ -124,9 +124,6 @@
     <t>5A</t>
   </si>
   <si>
-    <t>Mahbubul Islam</t>
-  </si>
-  <si>
     <t>5B</t>
   </si>
   <si>
@@ -256,18 +253,12 @@
     <t>Wasa</t>
   </si>
   <si>
-    <t>Motor repair</t>
-  </si>
-  <si>
     <t>Cleener</t>
   </si>
   <si>
     <t>Night Gurd</t>
   </si>
   <si>
-    <t>Transport Shamuddin</t>
-  </si>
-  <si>
     <t>Md Nazrul Islam</t>
   </si>
   <si>
@@ -289,13 +280,31 @@
     <t xml:space="preserve">Feb-2016, salary </t>
   </si>
   <si>
-    <t>Dish bill</t>
-  </si>
-  <si>
     <t xml:space="preserve">dec,15 jan-16 + new line </t>
   </si>
   <si>
     <t>3A-flat pending charge(Jan, Feb) + Ground floor flat 5 month(Oct-15-Feb-16) charge at 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shamuddin  </t>
+  </si>
+  <si>
+    <t>Shamuddin</t>
+  </si>
+  <si>
+    <t>Dish bill(Shahamuddin)</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>2/16/2016, 3 bill</t>
+  </si>
+  <si>
+    <t>Shamuddin Trannsport</t>
+  </si>
+  <si>
+    <t>Mahbubul Islam + Garage</t>
   </si>
 </sst>
 </file>
@@ -364,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -378,6 +387,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,8 +737,15 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="5">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42401</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42464</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -760,8 +777,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="5">
+        <v>2100</v>
+      </c>
       <c r="E4" s="1">
         <v>42401</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,10 +797,15 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="5">
+        <v>2100</v>
+      </c>
       <c r="E5" s="1">
         <v>42401</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>42464</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -789,8 +817,14 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="5">
+        <v>2100</v>
+      </c>
       <c r="E6" s="1">
         <v>42401</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,8 +837,14 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
+      <c r="D7" s="5">
+        <v>2100</v>
+      </c>
       <c r="E7" s="1">
         <v>42401</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,8 +857,14 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="5">
+        <v>2100</v>
+      </c>
       <c r="E8" s="1">
         <v>42401</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,8 +897,14 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
       <c r="E10" s="1">
         <v>42401</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,10 +917,15 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
+      <c r="D11" s="5">
+        <v>2100</v>
+      </c>
       <c r="E11" s="1">
         <v>42401</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>42464</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -880,8 +937,14 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
+      <c r="D12" s="5">
+        <v>2100</v>
+      </c>
       <c r="E12" s="1">
         <v>42401</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,7 +958,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="5">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E13" s="1">
         <v>42401</v>
@@ -929,10 +992,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5">
         <v>2100</v>
@@ -969,13 +1032,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
+      <c r="D17" s="5">
+        <v>2600</v>
       </c>
       <c r="E17" s="1">
         <v>42401</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,13 +1052,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
+      <c r="D18" s="5">
+        <v>2100</v>
       </c>
       <c r="E18" s="1">
         <v>42401</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,13 +1072,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
+      <c r="D19" s="5">
+        <v>2100</v>
       </c>
       <c r="E19" s="1">
         <v>42401</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,13 +1092,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
-        <v>41</v>
+      <c r="D20" s="5">
+        <v>2100</v>
       </c>
       <c r="E20" s="1">
         <v>42401</v>
+      </c>
+      <c r="F20" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,10 +1112,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="5">
         <v>2100</v>
@@ -1045,28 +1132,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
+      <c r="D22" s="5">
+        <v>2100</v>
       </c>
       <c r="E22" s="1">
         <v>42401</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>42464</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
-        <v>47</v>
+      <c r="D23" s="5">
+        <v>1700</v>
       </c>
       <c r="E23" s="1">
         <v>42401</v>
+      </c>
+      <c r="F23" s="2">
+        <v>42464</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,10 +1172,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>2100</v>
@@ -1094,35 +1192,45 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
-        <v>51</v>
+      <c r="D25" s="5">
+        <v>2100</v>
       </c>
       <c r="E25" s="1">
         <v>42401</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>42464</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
-        <v>53</v>
+      <c r="D26" s="5">
+        <v>2100</v>
       </c>
       <c r="E26" s="1">
         <v>42401</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>42464</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="4">
         <f>SUM(D2:D26)</f>
-        <v>16800</v>
+        <v>50900</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,10 +1238,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3000</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1142,7 +1253,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6150</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
@@ -1152,7 +1266,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D31" s="5">
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1160,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1168,7 +1285,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1176,10 +1296,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D34" s="5">
         <v>7000</v>
@@ -1190,7 +1310,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="5">
         <v>500</v>
@@ -1199,35 +1319,35 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
         <f>SUM(D28:D35)</f>
-        <v>24300</v>
+        <v>69050</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I37" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I38" s="12">
         <f>D36</f>
-        <v>24300</v>
+        <v>69050</v>
       </c>
       <c r="J38" s="12">
         <f>D64</f>
-        <v>45496</v>
+        <v>53161</v>
       </c>
       <c r="K38" s="12">
         <f>I38-J38+M38</f>
-        <v>3956</v>
+        <v>41041</v>
       </c>
       <c r="M38">
         <v>25152</v>
@@ -1235,22 +1355,22 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1258,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D42" s="7">
         <v>8600</v>
@@ -1273,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D43" s="7">
         <v>7500</v>
@@ -1288,9 +1408,14 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="C44" s="13">
+        <v>42416</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2500</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -1298,7 +1423,10 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C45" s="13">
+        <v>42416</v>
       </c>
       <c r="D45" s="7">
         <v>8279</v>
@@ -1309,7 +1437,10 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C46" s="13">
+        <v>42416</v>
       </c>
       <c r="D46" s="7">
         <v>6717</v>
@@ -1322,98 +1453,155 @@
       <c r="B47" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="C47" s="13">
+        <v>42416</v>
+      </c>
+      <c r="D47" s="7">
+        <v>500</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D48" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D49" s="7">
+        <v>160</v>
+      </c>
+      <c r="E49" s="2">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D50" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D51" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D52" s="7">
         <v>14400</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="13">
+        <v>42416</v>
+      </c>
+      <c r="D53" s="7">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="13">
+        <v>42416</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="6">
         <f>SUM(D42:D63)</f>
-        <v>45496</v>
+        <v>53161</v>
       </c>
     </row>
   </sheetData>
@@ -1441,22 +1629,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
       </c>
       <c r="D2" s="7">
         <v>8600</v>
@@ -1481,10 +1669,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
       </c>
       <c r="D3" s="7">
         <v>7500</v>
@@ -1498,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="7">
         <v>351</v>
@@ -1507,12 +1695,12 @@
         <v>42523</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="6">
         <f>SUM(D2:D23)</f>
@@ -1541,13 +1729,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
